--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_66.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Eb:7'], ['Ab', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['E:7', 'A:maj', 'E:7'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.1, 5.91), (21.5, 24.4), (7.05, 9.89)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9), (16.36, 18.26), (6.46, 12.08)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09980620155038759</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:22.080000', '0:00:29.360000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:11.300000', '0:00:39')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1704545454545455</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E/5', 'B', 'B'], ['B', 'B', 'E/5']]</t>
-        </is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07463144963144963</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C'], ['C', 'C', 'F']]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(61.620521, 67.541609), (55.629773, 63.091379)]</t>
+          <t>[['B', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.61, 38.9), (36.0, 37.28)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:17.940000', '0:00:18.860000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:09.480113', '0:00:15.412811')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1164473684210526</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G'], ['D', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1473214285714286</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'F/9'], ['C', 'G', 'G']]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.611451, 16.24229), (16.24229, 26.56356)]</t>
+          <t>[['A', 'D', 'D/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.662222, 43.057777), (50.604263, 57.976598)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:55.641383', '0:01:01.040381')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:13.657911', '0:00:17.965212')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1671087533156499</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A'], ['A', 'F#:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj'], ['Ab/7', 'F:min', 'Db:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(53.714217, 67.077301), (8.713945, 14.066144)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(45.887, 51.649), (57.388, 62.385)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1254237288135593</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'G']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.435215, 13.067596)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.497891, 9.516363)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.94, 12.72), (9.24, 12.02)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(44.86, 48.0), (43.66, 47.36)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:58.040000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4613095238095238</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/7']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.560212, 12.866913)]</t>
+          <t>[('0:00:07.205000', '0:00:21.095000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.88, 52.16)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.56, 27.36)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09250474383301707</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(61.683832, 65.956303)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04072398190045249</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(127.6, 132.4)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2003577817531306</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(92.04, 104.4)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.6, 45.98)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0976890756302521</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/5']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.657911, 17.965212)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.034375</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(15.25, 22.53)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(242.22, 244.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
